--- a/entrevista_mara/Agenda Integrada Serviços de Psicologia USCS 2023.01.xlsx
+++ b/entrevista_mara/Agenda Integrada Serviços de Psicologia USCS 2023.01.xlsx
@@ -553,7 +553,7 @@
       <selection pane="bottomRight" activeCell="V75" activeCellId="0" sqref="V75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="1" style="0" width="15.66"/>
   </cols>
